--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>市城管局</t>
   </si>
@@ -43,33 +43,49 @@
   </si>
   <si>
     <t>城市供水单位未按规定上报水质报表的处罚</t>
-  </si>
-  <si>
-    <t>排水户排放的污水可能危及城镇排水与污水处理设施安全运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水质安全的其他行为的处罚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未按规定上报水质报表的处罚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未经批准或者未按批准事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水质信息的处罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水户排放的污水可能危及城镇排水与污水处理设施安全运行的处罚</t>
+  </si>
+  <si>
+    <t>危害城市供水水质安全的其他行为的处罚</t>
+  </si>
+  <si>
+    <t>城市供水单位、二次供水管理单位隐瞒、缓报、谎报水质突发事件或者水质信息的处罚</t>
+  </si>
+  <si>
+    <t>未经批准或者未按批准事项设置户外广告的处罚</t>
+  </si>
+  <si>
+    <t>未按规定上报水质报表的处罚123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市供水单位未制定城市供水水质突发事件应急预案的处罚34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水户排放的污水可能危及城镇排水与污水处理设施安全运行阿萨德大所多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +120,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +234,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,35 +561,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="3" width="1.625" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.399999999999999">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,12 +603,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1821</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -590,16 +616,23 @@
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1822</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -607,16 +640,23 @@
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1823</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -624,16 +664,23 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1824</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -641,16 +688,23 @@
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1825</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -658,16 +712,23 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>1830</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -675,11 +736,18 @@
       <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="4">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>1823</v>
       </c>
@@ -692,9 +760,16 @@
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -712,7 +787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -725,10 +800,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>